--- a/views/Estadisticas_Hombre.xlsx
+++ b/views/Estadisticas_Hombre.xlsx
@@ -440,46 +440,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.9189710610932</v>
+        <v>39.3298223350254</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230868167202572</v>
+        <v>0.20253807106599</v>
       </c>
       <c r="E2" t="n">
-        <v>2.44265809217578</v>
+        <v>2.51484771573604</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00364415862808146</v>
+        <v>0.00634517766497462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.108681672025723</v>
+        <v>0.125253807106599</v>
       </c>
       <c r="I2" t="n">
-        <v>0.372132904608789</v>
+        <v>0.341497461928934</v>
       </c>
       <c r="J2" t="n">
-        <v>0.402572347266881</v>
+        <v>0.382360406091371</v>
       </c>
       <c r="K2" t="n">
-        <v>1792028.54648982</v>
+        <v>1479801.20101126</v>
       </c>
       <c r="L2" t="n">
-        <v>1988884.23411933</v>
+        <v>1982797.90962352</v>
       </c>
       <c r="M2" t="n">
-        <v>49.8561629153269</v>
+        <v>68.9181472081218</v>
       </c>
       <c r="N2" t="n">
-        <v>51.1054662379421</v>
+        <v>51.6392131979695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.201714898177921</v>
+        <v>0.383375634517767</v>
       </c>
     </row>
     <row r="3">
@@ -487,46 +487,46 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9146601959937</v>
+        <v>13.4047659884795</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421433421347185</v>
+        <v>0.401916534172847</v>
       </c>
       <c r="E3" t="n">
-        <v>0.953565017968998</v>
+        <v>1.0018552923516</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0602632327897355</v>
+        <v>0.0794085423818973</v>
       </c>
       <c r="H3" t="n">
-        <v>0.311272767696959</v>
+        <v>0.331027486625139</v>
       </c>
       <c r="I3" t="n">
-        <v>0.483425384522977</v>
+        <v>0.474242012827262</v>
       </c>
       <c r="J3" t="n">
-        <v>0.490468571211912</v>
+        <v>0.485994752450482</v>
       </c>
       <c r="K3" t="n">
-        <v>1943568.0650031</v>
+        <v>1425145.48714004</v>
       </c>
       <c r="L3" t="n">
-        <v>2734787.67158078</v>
+        <v>3069538.32767112</v>
       </c>
       <c r="M3" t="n">
-        <v>71.857480690301</v>
+        <v>94.1197630079481</v>
       </c>
       <c r="N3" t="n">
-        <v>11.0557424230804</v>
+        <v>13.3303734224098</v>
       </c>
       <c r="O3" t="n">
-        <v>0.401323464714862</v>
+        <v>0.486239407109032</v>
       </c>
     </row>
   </sheetData>
